--- a/medicine/Pharmacie/Michael_Schüppach/Michael_Schüppach.xlsx
+++ b/medicine/Pharmacie/Michael_Schüppach/Michael_Schüppach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Michael_Sch%C3%BCppach</t>
+          <t>Michael_Schüppach</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Schüppach, né le 26 juin 1707 à Biglen (Suisse), mort le 2 mars 1781 à Langnau im Emmental (Suisse), appelé aussi Michel Schüppach ou Micheli Schüppach et Schärer-Micheli, est un apothicaire et barbier chirurgien suisse. Il fut connu comme le « médecin des montagnes » au XVIIIe siècle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Michael_Sch%C3%BCppach</t>
+          <t>Michael_Schüppach</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,20 +525,129 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Son père est David Schüpbach[Note 1] (1680-1765) et sa mère Barbara Keller[1]. Michael Schüppach reçoit une formation de chirurgien puis passe un examen de maîtrise à Berne en 1746[2]. 
-Vie de famille
-Il épouse Barbara Neuenschwander, fille d'Ulrich Neuenschwander, juge assesseur à Langnau. Elle décède le 20 août 1756. Ils ont 2 enfants : Michael et Elisabeth[1].
-En 1758, il épouse Marie Flückiger, née en 1735, qui devient son assistante et son interprète[3].
-Installation
-En 1727, il reprend un salon de barbier et un cabinet médico-chirurgical à Langnau[2].
-En 1739, il crée une nouvelle "maison de soins" (en allemand : Kurhaus) dans la Bergstraße. En 1758, il s'installe dans le Dorfberg, une montagne aux abords de Langnau. « Sa clientèle, d'abord locale, s'est rapidement étendue et de nombreux patients étrangers sont venus de l'Europe entière pour consulter ce médecin autodidacte[4]. »
-Toutes les célébrités du XVIIIe siècle viennent le voir : Lavater le rencontre le 17 avril 1777 et Goethe, qui lui rend visite le 17 octobre 1779 avec Charles-Auguste de Saxe-Weimar-Eisenach, est « enchanté de lui[5]. » L'écrivain et globe-trotter suisse César-François de Saussure (en) le consulte plusieurs fois notamment à la fin de sa vie[6].
-« On vient de loin pour se faire soigner chez lui, de Paris comme de Lausanne, évidemment. On y croise le landgrave de Hesse-Hombourg, la princesse de Hesse-Darmstadt, celle de Baden-Baden ou la comtesse de Champagne[7]. »
-De plus, il pratiquait l'uroscopie et « chaque jour, quelques [sic] 80 messagers arrivaient à l'officine avec des flasques d'urine en provenance de toute l'Europe[8]. » Il tenait un livre de consultations (Ordinationsbücher) au jour le jour des traitements qu'il distribuait notamment des plantes qu'il prescrivait (Rezeptbücher).
-Il éveilla l'intérêt de médecins comme Johann Georg Zimmermann, mais n'obtint pas la reconnaissance des universitaires bien que sa thérapeutique soit conforme à celle de son temps et que « Schüppach ne soit pas plus charlatan qu'un autre[9]. »
-Décès
-Il meurt le 2 mars 1781 probablement des complications de la goutte.
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son père est David Schüpbach[Note 1] (1680-1765) et sa mère Barbara Keller. Michael Schüppach reçoit une formation de chirurgien puis passe un examen de maîtrise à Berne en 1746. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Michael_Schüppach</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_Sch%C3%BCppach</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie de famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il épouse Barbara Neuenschwander, fille d'Ulrich Neuenschwander, juge assesseur à Langnau. Elle décède le 20 août 1756. Ils ont 2 enfants : Michael et Elisabeth.
+En 1758, il épouse Marie Flückiger, née en 1735, qui devient son assistante et son interprète.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Michael_Schüppach</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_Sch%C3%BCppach</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Installation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1727, il reprend un salon de barbier et un cabinet médico-chirurgical à Langnau.
+En 1739, il crée une nouvelle "maison de soins" (en allemand : Kurhaus) dans la Bergstraße. En 1758, il s'installe dans le Dorfberg, une montagne aux abords de Langnau. « Sa clientèle, d'abord locale, s'est rapidement étendue et de nombreux patients étrangers sont venus de l'Europe entière pour consulter ce médecin autodidacte. »
+Toutes les célébrités du XVIIIe siècle viennent le voir : Lavater le rencontre le 17 avril 1777 et Goethe, qui lui rend visite le 17 octobre 1779 avec Charles-Auguste de Saxe-Weimar-Eisenach, est « enchanté de lui. » L'écrivain et globe-trotter suisse César-François de Saussure (en) le consulte plusieurs fois notamment à la fin de sa vie.
+« On vient de loin pour se faire soigner chez lui, de Paris comme de Lausanne, évidemment. On y croise le landgrave de Hesse-Hombourg, la princesse de Hesse-Darmstadt, celle de Baden-Baden ou la comtesse de Champagne. »
+De plus, il pratiquait l'uroscopie et « chaque jour, quelques [sic] 80 messagers arrivaient à l'officine avec des flasques d'urine en provenance de toute l'Europe. » Il tenait un livre de consultations (Ordinationsbücher) au jour le jour des traitements qu'il distribuait notamment des plantes qu'il prescrivait (Rezeptbücher).
+Il éveilla l'intérêt de médecins comme Johann Georg Zimmermann, mais n'obtint pas la reconnaissance des universitaires bien que sa thérapeutique soit conforme à celle de son temps et que « Schüppach ne soit pas plus charlatan qu'un autre. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Michael_Schüppach</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_Sch%C3%BCppach</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Décès</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il meurt le 2 mars 1781 probablement des complications de la goutte.
 </t>
         </is>
       </c>
